--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -107,10 +107,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>申请意见</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>单号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>${obj.applyPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理意见</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,75 +760,75 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -75,10 +75,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>商品条码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>售价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -192,6 +184,14 @@
   </si>
   <si>
     <t>处理意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -736,99 +736,99 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -187,11 +187,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>商品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -751,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -59,10 +59,6 @@
     <t>${obj.branchName}</t>
   </si>
   <si>
-    <t>调价订单申请</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>零售价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>调价单申请</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -727,108 +727,108 @@
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>${obj.branchName}</t>
   </si>
@@ -192,6 +194,22 @@
   </si>
   <si>
     <t>调价单申请</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(I3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(H3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -215,6 +233,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,22 +241,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +323,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,25 +730,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -800,13 +825,13 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -830,6 +855,33 @@
       <c r="Q3" s="3" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="Q3")</t>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -215,6 +217,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,22 +225,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +307,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,74 +321,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,7 +340,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -680,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -705,25 +646,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -800,13 +741,13 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="3" t="s">

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>${obj.branchName}</t>
   </si>
@@ -194,22 +194,6 @@
   </si>
   <si>
     <t>调价单申请</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -337,74 +321,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,7 +340,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -703,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,33 +772,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
+++ b/src/main/resources/template/excel/export/overdueApprovedDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="T3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>${obj.branchName}</t>
   </si>
@@ -141,59 +141,82 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.applyDesc}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.auditDesc}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.formNo}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.createUserName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.createTime}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.validUserName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchCode}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.applyPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理意见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>调价单申请</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.expiryDateStr}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>距到期天数</t>
+  </si>
+  <si>
+    <t>${obj.distanceDay}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.applyAmount}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.applyDesc}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.auditDesc}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.formNo}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.createUserName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.createTime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.validUserName}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.branchCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.applyPrice}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理意见</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>调价单申请</t>
+    <t>${obj.productionDateStr}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,7 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,6 +343,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -340,7 +430,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -619,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,36 +727,40 @@
     <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="20.5" customWidth="1"/>
+    <col min="14" max="15" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -692,36 +786,45 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -745,36 +848,45 @@
         <v>20</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
